--- a/src/assets/ExcelSampleFile/Tags_Sample.xlsx
+++ b/src/assets/ExcelSampleFile/Tags_Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\Venture Pact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tradevogue\eCommerce-frontend\src\assets\ExcelSampleFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FC507-5AB4-4E8D-B65C-74EF8C8E26E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD16D32-9AB0-4A53-A488-90F2B370AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
-    <t>Tags</t>
+    <t>TagName</t>
   </si>
   <si>
-    <t>TagName</t>
+    <t>tags</t>
   </si>
 </sst>
 </file>
@@ -79,12 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -370,35 +369,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
